--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="24">
   <si>
     <t>CIs</t>
   </si>
@@ -165,7 +165,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="D2" t="n">
         <v>30.0</v>
@@ -182,7 +182,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="D3" t="n">
         <v>30.0</v>
@@ -199,13 +199,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
         <v>35.0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
@@ -216,13 +216,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D5" t="n">
         <v>35.0</v>
       </c>
       <c r="E5" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -233,13 +233,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="E6" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -250,13 +250,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
@@ -267,7 +267,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D8" t="n">
         <v>30.0</v>
@@ -284,7 +284,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" t="n">
         <v>30.0</v>
@@ -301,13 +301,13 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="D10" t="n">
         <v>35.0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
@@ -318,13 +318,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="D11" t="n">
         <v>35.0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
@@ -335,7 +335,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="D12" t="n">
         <v>30.0</v>
@@ -352,7 +352,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="D13" t="n">
         <v>30.0</v>
@@ -402,7 +402,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.777358494308177</v>
+        <v>0.404906958641979</v>
       </c>
       <c r="E2"/>
     </row>
@@ -417,7 +417,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.777358494308177</v>
+        <v>0.404906958641979</v>
       </c>
       <c r="E3"/>
     </row>
@@ -432,7 +432,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.509663168041911</v>
+        <v>0.318895731957874</v>
       </c>
       <c r="E4"/>
     </row>
@@ -447,7 +447,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.509663168041911</v>
+        <v>0.318895731957874</v>
       </c>
       <c r="E5"/>
     </row>
@@ -462,7 +462,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.815533103461351</v>
+        <v>0.593702412935138</v>
       </c>
       <c r="E6"/>
     </row>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.815533103461351</v>
+        <v>0.593702412935138</v>
       </c>
       <c r="E7"/>
     </row>
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.502648457105952</v>
+        <v>0.363854423477741</v>
       </c>
       <c r="E8"/>
     </row>
@@ -507,7 +507,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.502648457105952</v>
+        <v>0.363854423477741</v>
       </c>
       <c r="E9"/>
     </row>
@@ -522,7 +522,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>0.484916882269354</v>
+        <v>0.528534421509007</v>
       </c>
       <c r="E10"/>
     </row>
@@ -537,7 +537,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0.484916882269354</v>
+        <v>0.528534421509007</v>
       </c>
       <c r="E11"/>
     </row>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.485994288209988</v>
+        <v>0.549049620364356</v>
       </c>
       <c r="E12"/>
     </row>
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.485994288209988</v>
+        <v>0.549049620364356</v>
       </c>
       <c r="E13"/>
     </row>
@@ -612,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.22695239356794E-9</v>
+        <v>1.42858752049104E-9</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -629,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>3.22695239356794E-9</v>
+        <v>1.42858752049104E-9</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -646,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>7.12685189422793E-11</v>
+        <v>1.07094893910634E-11</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -663,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>7.12685189422793E-11</v>
+        <v>1.07094893910634E-11</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>2.78631695813817E-13</v>
+        <v>8.18296533080675E-13</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -697,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>2.78631695813817E-13</v>
+        <v>8.18296533080675E-13</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -714,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>2.08987348676398E-9</v>
+        <v>1.06415810970289E-9</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>2.08987348676398E-9</v>
+        <v>1.06415810970289E-9</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -748,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>1.2846637989773E-11</v>
+        <v>2.23430892836808E-12</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -765,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>1.2846637989773E-11</v>
+        <v>2.23430892836808E-12</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -782,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>4.35624660949255E-10</v>
+        <v>2.64165929314955E-10</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -799,7 +799,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>4.35624660949255E-10</v>
+        <v>2.64165929314955E-10</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -846,7 +846,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.315803521792316</v>
+        <v>0.323987661954884</v>
       </c>
       <c r="E2"/>
     </row>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315803521792316</v>
+        <v>0.323987661954884</v>
       </c>
       <c r="E3"/>
     </row>
@@ -876,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205962039553856</v>
+        <v>0.234931511727671</v>
       </c>
       <c r="E4"/>
     </row>
@@ -891,7 +891,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.205962039553856</v>
+        <v>0.234931511727671</v>
       </c>
       <c r="E5"/>
     </row>
@@ -906,11 +906,9 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0488554556670238</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
+        <v>0.0775880093966792</v>
+      </c>
+      <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -923,11 +921,9 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0488554556670238</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
+        <v>0.0775880093966792</v>
+      </c>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -940,7 +936,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.313984935614224</v>
+        <v>0.374396656596796</v>
       </c>
       <c r="E8"/>
     </row>
@@ -955,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>0.313984935614224</v>
+        <v>0.374396656596796</v>
       </c>
       <c r="E9"/>
     </row>
@@ -970,7 +966,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>0.181951522290772</v>
+        <v>0.238531595082311</v>
       </c>
       <c r="E10"/>
     </row>
@@ -985,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>0.181951522290772</v>
+        <v>0.238531595082311</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1000,7 +996,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>0.285725734246532</v>
+        <v>0.380262513891414</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1015,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>0.285725734246532</v>
+        <v>0.380262513891414</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1060,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.103016525638629</v>
+        <v>0.321932695706495</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1075,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103016525638629</v>
+        <v>0.321932695706495</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1090,7 +1086,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.286644334308156</v>
+        <v>0.331409309620894</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1105,7 +1101,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.286644334308156</v>
+        <v>0.331409309620894</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1120,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.098971336928886</v>
+        <v>0.209309723509243</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1135,7 +1131,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.098971336928886</v>
+        <v>0.209309723509243</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1150,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112296809498828</v>
+        <v>0.175360431434403</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1165,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112296809498828</v>
+        <v>0.175360431434403</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1180,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251026289076891</v>
+        <v>0.235605791010912</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1195,7 +1191,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251026289076891</v>
+        <v>0.235605791010912</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1210,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0887970888015047</v>
+        <v>0.116969207273225</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1225,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0887970888015047</v>
+        <v>0.116969207273225</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1270,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.807386476678303</v>
+        <v>0.69233946467254</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1285,7 +1281,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.807386476678303</v>
+        <v>0.69233946467254</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1300,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.893196707631072</v>
+        <v>0.912857922172025</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1315,7 +1311,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.893196707631072</v>
+        <v>0.912857922172025</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1330,7 +1326,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.899687232365517</v>
+        <v>0.977097979282828</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1345,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.899687232365517</v>
+        <v>0.977097979282828</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1360,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.915120827814934</v>
+        <v>0.923264021539682</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1375,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.915120827814934</v>
+        <v>0.923264021539682</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1390,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.811283372409724</v>
+        <v>0.966352404175127</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1405,7 +1401,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>0.811283372409724</v>
+        <v>0.966352404175127</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1420,7 +1416,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.849435007311638</v>
+        <v>0.96935283251391</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1435,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>0.849435007311638</v>
+        <v>0.96935283251391</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1480,7 +1476,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.945261977491138</v>
+        <v>0.93657062678907</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1495,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.945261977491138</v>
+        <v>0.93657062678907</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1510,7 +1506,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.634393536063557</v>
+        <v>0.513961015652865</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1525,7 +1521,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.634393536063557</v>
+        <v>0.513961015652865</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1540,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.338755648754476</v>
+        <v>0.324951716008043</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1555,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.338755648754476</v>
+        <v>0.324951716008043</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1570,7 +1566,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.945661297413291</v>
+        <v>0.836040624013656</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1585,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.945661297413291</v>
+        <v>0.836040624013656</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1600,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0.622722684209386</v>
+        <v>0.425470120120723</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1615,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0.622722684209386</v>
+        <v>0.425470120120723</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1630,7 +1626,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.931791076097161</v>
+        <v>0.726861018577432</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1645,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0.931791076097161</v>
+        <v>0.726861018577432</v>
       </c>
       <c r="E13"/>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="25">
   <si>
     <t>CIs</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>20_70</t>
+  </si>
+  <si>
+    <t>15_55</t>
   </si>
   <si>
     <t>WJ3</t>
@@ -162,10 +165,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D2" t="n">
         <v>30.0</v>
@@ -179,10 +182,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D3" t="n">
         <v>30.0</v>
@@ -196,16 +199,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="E4" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
@@ -213,16 +216,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="E5" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
@@ -230,16 +233,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="E6" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,16 +250,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="E7" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
@@ -264,10 +267,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D8" t="n">
         <v>30.0</v>
@@ -281,10 +284,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D9" t="n">
         <v>30.0</v>
@@ -298,16 +301,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D10" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,16 +318,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="E11" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
@@ -332,10 +335,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D12" t="n">
         <v>30.0</v>
@@ -349,16 +352,50 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D13" t="n">
         <v>30.0</v>
       </c>
       <c r="E13" t="n">
         <v>15.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -379,16 +416,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -396,13 +433,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.404906958641979</v>
+        <v>0.445556924446458</v>
       </c>
       <c r="E2"/>
     </row>
@@ -411,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.404906958641979</v>
+        <v>0.445556924446458</v>
       </c>
       <c r="E3"/>
     </row>
@@ -426,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.318895731957874</v>
+        <v>0.364666891018258</v>
       </c>
       <c r="E4"/>
     </row>
@@ -441,13 +478,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.318895731957874</v>
+        <v>0.364666891018258</v>
       </c>
       <c r="E5"/>
     </row>
@@ -456,13 +493,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.593702412935138</v>
+        <v>0.490648680389645</v>
       </c>
       <c r="E6"/>
     </row>
@@ -471,13 +508,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>0.593702412935138</v>
+        <v>0.490648680389645</v>
       </c>
       <c r="E7"/>
     </row>
@@ -486,13 +523,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.363854423477741</v>
+        <v>0.375837152296744</v>
       </c>
       <c r="E8"/>
     </row>
@@ -501,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>0.363854423477741</v>
+        <v>0.375837152296744</v>
       </c>
       <c r="E9"/>
     </row>
@@ -516,13 +553,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>0.528534421509007</v>
+        <v>0.547918073218914</v>
       </c>
       <c r="E10"/>
     </row>
@@ -531,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>0.528534421509007</v>
+        <v>0.547918073218914</v>
       </c>
       <c r="E11"/>
     </row>
@@ -546,13 +583,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>0.549049620364356</v>
+        <v>0.531999010603887</v>
       </c>
       <c r="E12"/>
     </row>
@@ -561,15 +598,45 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>0.549049620364356</v>
+        <v>0.531999010603887</v>
       </c>
       <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.761246318379095</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.761246318379095</v>
+      </c>
+      <c r="E15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -589,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -606,16 +673,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42858752049104E-9</v>
+        <v>4.73899540033575E-9</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -623,16 +690,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42858752049104E-9</v>
+        <v>4.73899540033575E-9</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -640,16 +707,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07094893910634E-11</v>
+        <v>3.19535867610204E-11</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -657,16 +724,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07094893910634E-11</v>
+        <v>3.19535867610204E-11</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -674,16 +741,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>8.18296533080675E-13</v>
+        <v>5.63429958912016E-13</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -691,16 +758,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>8.18296533080675E-13</v>
+        <v>5.63429958912016E-13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -708,16 +775,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>1.06415810970289E-9</v>
+        <v>2.41203554089838E-9</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -725,16 +792,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>1.06415810970289E-9</v>
+        <v>2.41203554089838E-9</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -742,16 +809,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>2.23430892836808E-12</v>
+        <v>6.27406220705407E-12</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -759,16 +826,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>2.23430892836808E-12</v>
+        <v>6.27406220705407E-12</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -776,16 +843,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>2.64165929314955E-10</v>
+        <v>5.31315808771645E-10</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -793,16 +860,50 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>2.64165929314955E-10</v>
+        <v>5.31315808771645E-10</v>
       </c>
       <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.15513464499047E-12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.15513464499047E-12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -823,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -840,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.323987661954884</v>
+        <v>0.254385636212383</v>
       </c>
       <c r="E2"/>
     </row>
@@ -855,13 +956,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.323987661954884</v>
+        <v>0.254385636212383</v>
       </c>
       <c r="E3"/>
     </row>
@@ -870,13 +971,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.234931511727671</v>
+        <v>0.123420686157021</v>
       </c>
       <c r="E4"/>
     </row>
@@ -885,13 +986,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234931511727671</v>
+        <v>0.123420686157021</v>
       </c>
       <c r="E5"/>
     </row>
@@ -900,13 +1001,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0775880093966792</v>
+        <v>0.0596641355440776</v>
       </c>
       <c r="E6"/>
     </row>
@@ -915,13 +1016,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0775880093966792</v>
+        <v>0.0596641355440776</v>
       </c>
       <c r="E7"/>
     </row>
@@ -930,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>0.374396656596796</v>
+        <v>0.272243650548861</v>
       </c>
       <c r="E8"/>
     </row>
@@ -945,13 +1046,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374396656596796</v>
+        <v>0.272243650548861</v>
       </c>
       <c r="E9"/>
     </row>
@@ -960,13 +1061,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>0.238531595082311</v>
+        <v>0.157746862991352</v>
       </c>
       <c r="E10"/>
     </row>
@@ -975,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238531595082311</v>
+        <v>0.157746862991352</v>
       </c>
       <c r="E11"/>
     </row>
@@ -990,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>0.380262513891414</v>
+        <v>0.331095689876193</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1005,15 +1106,45 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>0.380262513891414</v>
+        <v>0.331095689876193</v>
       </c>
       <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0956148559317596</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0956148559317596</v>
+      </c>
+      <c r="E15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1033,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1050,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.321932695706495</v>
+        <v>0.225505084379602</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1065,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.321932695706495</v>
+        <v>0.225505084379602</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1080,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.331409309620894</v>
+        <v>0.446128387083057</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1095,13 +1226,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.331409309620894</v>
+        <v>0.446128387083057</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1110,13 +1241,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.209309723509243</v>
+        <v>0.274284825684545</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1125,13 +1256,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.209309723509243</v>
+        <v>0.274284825684545</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1140,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.175360431434403</v>
+        <v>0.187050897989497</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1155,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175360431434403</v>
+        <v>0.187050897989497</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1170,13 +1301,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.235605791010912</v>
+        <v>0.428615167175362</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1185,13 +1316,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235605791010912</v>
+        <v>0.428615167175362</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1200,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.116969207273225</v>
+        <v>0.160864654316378</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1215,15 +1346,45 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>0.116969207273225</v>
+        <v>0.160864654316378</v>
       </c>
       <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.255993463572134</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.255993463572134</v>
+      </c>
+      <c r="E15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1243,16 +1404,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1260,13 +1421,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.69233946467254</v>
+        <v>0.647730489541015</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1275,13 +1436,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.69233946467254</v>
+        <v>0.647730489541015</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1290,13 +1451,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.912857922172025</v>
+        <v>0.712347887744659</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1305,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.912857922172025</v>
+        <v>0.712347887744659</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1320,13 +1481,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.977097979282828</v>
+        <v>0.845553465879941</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1335,13 +1496,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.977097979282828</v>
+        <v>0.845553465879941</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1350,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.923264021539682</v>
+        <v>0.807271126485066</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1365,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.923264021539682</v>
+        <v>0.807271126485066</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1380,13 +1541,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0.966352404175127</v>
+        <v>0.877023987729494</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1395,13 +1556,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0.966352404175127</v>
+        <v>0.877023987729494</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1410,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.96935283251391</v>
+        <v>0.937912068594667</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1425,15 +1586,45 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0.96935283251391</v>
+        <v>0.937912068594667</v>
       </c>
       <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.94736360030455</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.94736360030455</v>
+      </c>
+      <c r="E15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1453,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1470,13 +1661,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93657062678907</v>
+        <v>0.936941898439278</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1485,13 +1676,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.93657062678907</v>
+        <v>0.936941898439278</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1500,13 +1691,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.513961015652865</v>
+        <v>0.616651301495631</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1515,13 +1706,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.513961015652865</v>
+        <v>0.616651301495631</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1530,13 +1721,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.324951716008043</v>
+        <v>0.427685526009291</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1545,13 +1736,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.324951716008043</v>
+        <v>0.427685526009291</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1560,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.836040624013656</v>
+        <v>0.941126267525061</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1575,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.836040624013656</v>
+        <v>0.941126267525061</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1590,13 +1781,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.425470120120723</v>
+        <v>0.463434327154083</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1605,13 +1796,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.425470120120723</v>
+        <v>0.463434327154083</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1620,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>0.726861018577432</v>
+        <v>0.762165668692612</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1635,15 +1826,45 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>0.726861018577432</v>
+        <v>0.762165668692612</v>
       </c>
       <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.484137642991486</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.484137642991486</v>
+      </c>
+      <c r="E15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -168,7 +168,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
         <v>30.0</v>
@@ -185,7 +185,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="D3" t="n">
         <v>30.0</v>
@@ -202,10 +202,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="E4" t="n">
         <v>16.0</v>
@@ -219,10 +219,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="E5" t="n">
         <v>16.0</v>
@@ -236,13 +236,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D6" t="n">
         <v>44.0</v>
       </c>
       <c r="E6" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -253,13 +253,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D7" t="n">
         <v>44.0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D8" t="n">
         <v>30.0</v>
@@ -287,7 +287,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" t="n">
         <v>30.0</v>
@@ -304,10 +304,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="D10" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="E10" t="n">
         <v>16.0</v>
@@ -321,10 +321,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="E11" t="n">
         <v>16.0</v>
@@ -338,7 +338,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="D12" t="n">
         <v>30.0</v>
@@ -355,7 +355,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="D13" t="n">
         <v>30.0</v>
@@ -372,13 +372,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D14" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="E14" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -389,13 +389,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D15" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="E15" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -439,7 +439,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.445556924446458</v>
+        <v>0.407060738893197</v>
       </c>
       <c r="E2"/>
     </row>
@@ -454,7 +454,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.445556924446458</v>
+        <v>0.407060738893197</v>
       </c>
       <c r="E3"/>
     </row>
@@ -469,7 +469,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.364666891018258</v>
+        <v>0.315268537882078</v>
       </c>
       <c r="E4"/>
     </row>
@@ -484,7 +484,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364666891018258</v>
+        <v>0.315268537882078</v>
       </c>
       <c r="E5"/>
     </row>
@@ -499,7 +499,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.490648680389645</v>
+        <v>0.546591748787477</v>
       </c>
       <c r="E6"/>
     </row>
@@ -514,7 +514,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>0.490648680389645</v>
+        <v>0.546591748787477</v>
       </c>
       <c r="E7"/>
     </row>
@@ -529,7 +529,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.375837152296744</v>
+        <v>0.339337408931477</v>
       </c>
       <c r="E8"/>
     </row>
@@ -544,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>0.375837152296744</v>
+        <v>0.339337408931477</v>
       </c>
       <c r="E9"/>
     </row>
@@ -559,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>0.547918073218914</v>
+        <v>0.379825961488246</v>
       </c>
       <c r="E10"/>
     </row>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>0.547918073218914</v>
+        <v>0.379825961488246</v>
       </c>
       <c r="E11"/>
     </row>
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>0.531999010603887</v>
+        <v>0.401631997162745</v>
       </c>
       <c r="E12"/>
     </row>
@@ -604,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>0.531999010603887</v>
+        <v>0.401631997162745</v>
       </c>
       <c r="E13"/>
     </row>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>0.761246318379095</v>
+        <v>0.806383828403166</v>
       </c>
       <c r="E14"/>
     </row>
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>0.761246318379095</v>
+        <v>0.806383828403166</v>
       </c>
       <c r="E15"/>
     </row>
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>4.73899540033575E-9</v>
+        <v>1.72630301661863E-9</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -696,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>4.73899540033575E-9</v>
+        <v>1.72630301661863E-9</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -713,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>3.19535867610204E-11</v>
+        <v>4.12834095141211E-11</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -730,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>3.19535867610204E-11</v>
+        <v>4.12834095141211E-11</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -747,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>5.63429958912016E-13</v>
+        <v>1.66270735005133E-12</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>5.63429958912016E-13</v>
+        <v>1.66270735005133E-12</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>2.41203554089838E-9</v>
+        <v>1.28591623340606E-9</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -798,7 +798,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>2.41203554089838E-9</v>
+        <v>1.28591623340606E-9</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -815,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>6.27406220705407E-12</v>
+        <v>9.35221447090469E-12</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>6.27406220705407E-12</v>
+        <v>9.35221447090469E-12</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -849,7 +849,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>5.31315808771645E-10</v>
+        <v>3.2972371307521E-10</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -866,7 +866,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>5.31315808771645E-10</v>
+        <v>3.2972371307521E-10</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -883,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>2.15513464499047E-12</v>
+        <v>7.90915729556192E-13</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -900,7 +900,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>2.15513464499047E-12</v>
+        <v>7.90915729556192E-13</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -947,7 +947,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.254385636212383</v>
+        <v>0.188187381058959</v>
       </c>
       <c r="E2"/>
     </row>
@@ -962,7 +962,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254385636212383</v>
+        <v>0.188187381058959</v>
       </c>
       <c r="E3"/>
     </row>
@@ -977,7 +977,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.123420686157021</v>
+        <v>0.157146819842407</v>
       </c>
       <c r="E4"/>
     </row>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123420686157021</v>
+        <v>0.157146819842407</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0596641355440776</v>
+        <v>0.0650887487548285</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1022,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596641355440776</v>
+        <v>0.0650887487548285</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>0.272243650548861</v>
+        <v>0.240035560396288</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>0.272243650548861</v>
+        <v>0.240035560396288</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157746862991352</v>
+        <v>0.203983282086913</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1082,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157746862991352</v>
+        <v>0.203983282086913</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1097,7 +1097,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>0.331095689876193</v>
+        <v>0.302825700602156</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1112,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>0.331095689876193</v>
+        <v>0.302825700602156</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1127,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0956148559317596</v>
+        <v>0.0605525362063025</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1142,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0956148559317596</v>
+        <v>0.0605525362063025</v>
       </c>
       <c r="E15"/>
     </row>
@@ -1187,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225505084379602</v>
+        <v>0.203449316616009</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1202,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225505084379602</v>
+        <v>0.203449316616009</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1217,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.446128387083057</v>
+        <v>0.447822477084724</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.446128387083057</v>
+        <v>0.447822477084724</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1247,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.274284825684545</v>
+        <v>0.225387814782236</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1262,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.274284825684545</v>
+        <v>0.225387814782236</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187050897989497</v>
+        <v>0.187952382154039</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1292,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.187050897989497</v>
+        <v>0.187952382154039</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.428615167175362</v>
+        <v>0.316170367389708</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1322,7 +1322,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>0.428615167175362</v>
+        <v>0.316170367389708</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1337,7 +1337,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.160864654316378</v>
+        <v>0.115465260430079</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1352,7 +1352,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160864654316378</v>
+        <v>0.115465260430079</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1367,7 +1367,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255993463572134</v>
+        <v>0.318815452981043</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1382,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>0.255993463572134</v>
+        <v>0.318815452981043</v>
       </c>
       <c r="E15"/>
     </row>
@@ -1427,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.647730489541015</v>
+        <v>0.43174442274246</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1442,7 +1442,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.647730489541015</v>
+        <v>0.43174442274246</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1457,7 +1457,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.712347887744659</v>
+        <v>0.672759076964209</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1472,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.712347887744659</v>
+        <v>0.672759076964209</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1487,7 +1487,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.845553465879941</v>
+        <v>0.849715084901025</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.845553465879941</v>
+        <v>0.849715084901025</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1517,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.807271126485066</v>
+        <v>0.722760013823793</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.807271126485066</v>
+        <v>0.722760013823793</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1547,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0.877023987729494</v>
+        <v>0.793413261720042</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1562,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0.877023987729494</v>
+        <v>0.793413261720042</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1577,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.937912068594667</v>
+        <v>0.834011116428233</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0.937912068594667</v>
+        <v>0.834011116428233</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1607,7 +1607,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>0.94736360030455</v>
+        <v>0.90817581736484</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1622,7 +1622,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>0.94736360030455</v>
+        <v>0.90817581736484</v>
       </c>
       <c r="E15"/>
     </row>
@@ -1667,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.936941898439278</v>
+        <v>0.794161368855019</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1682,7 +1682,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.936941898439278</v>
+        <v>0.794161368855019</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1697,7 +1697,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.616651301495631</v>
+        <v>0.643134890104883</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1712,7 +1712,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.616651301495631</v>
+        <v>0.643134890104883</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1727,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.427685526009291</v>
+        <v>0.46947382014926</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1742,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.427685526009291</v>
+        <v>0.46947382014926</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1757,7 +1757,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.941126267525061</v>
+        <v>0.945457181154344</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1772,7 +1772,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.941126267525061</v>
+        <v>0.945457181154344</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1787,7 +1787,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.463434327154083</v>
+        <v>0.625102723624199</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1802,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.463434327154083</v>
+        <v>0.625102723624199</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1817,7 +1817,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>0.762165668692612</v>
+        <v>0.9426175982002</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1832,7 +1832,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>0.762165668692612</v>
+        <v>0.9426175982002</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1847,7 +1847,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>0.484137642991486</v>
+        <v>0.457707911225385</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1862,7 +1862,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>0.484137642991486</v>
+        <v>0.457707911225385</v>
       </c>
       <c r="E15"/>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="26">
   <si>
     <t>CIs</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>10_70</t>
+  </si>
+  <si>
+    <t>10_60</t>
   </si>
   <si>
     <t>15_65</t>
@@ -165,10 +168,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="D2" t="n">
         <v>30.0</v>
@@ -182,10 +185,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="D3" t="n">
         <v>30.0</v>
@@ -199,16 +202,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
@@ -216,16 +219,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="D5" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="E5" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="6">
@@ -233,16 +236,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="E6" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
@@ -250,16 +253,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="E7" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
@@ -267,16 +270,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="D8" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
@@ -284,16 +287,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="10">
@@ -301,16 +304,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="D10" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -318,16 +321,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
@@ -335,16 +338,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="D12" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
@@ -352,16 +355,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
@@ -369,16 +372,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>39.0</v>
+        <v>54.0</v>
       </c>
       <c r="D14" t="n">
-        <v>48.0</v>
+        <v>30.0</v>
       </c>
       <c r="E14" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
@@ -386,16 +389,50 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>39.0</v>
+        <v>54.0</v>
       </c>
       <c r="D15" t="n">
-        <v>48.0</v>
+        <v>30.0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -416,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -433,13 +470,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.407060738893197</v>
+        <v>0.596532891672246</v>
       </c>
       <c r="E2"/>
     </row>
@@ -448,13 +485,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.407060738893197</v>
+        <v>0.596532891672246</v>
       </c>
       <c r="E3"/>
     </row>
@@ -463,13 +500,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.315268537882078</v>
+        <v>0.889668168126462</v>
       </c>
       <c r="E4"/>
     </row>
@@ -478,13 +515,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315268537882078</v>
+        <v>0.889668168126462</v>
       </c>
       <c r="E5"/>
     </row>
@@ -493,13 +530,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.546591748787477</v>
+        <v>0.297711053588368</v>
       </c>
       <c r="E6"/>
     </row>
@@ -508,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.546591748787477</v>
+        <v>0.297711053588368</v>
       </c>
       <c r="E7"/>
     </row>
@@ -523,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.339337408931477</v>
+        <v>0.656202142717386</v>
       </c>
       <c r="E8"/>
     </row>
@@ -538,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0.339337408931477</v>
+        <v>0.656202142717386</v>
       </c>
       <c r="E9"/>
     </row>
@@ -553,13 +590,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.379825961488246</v>
+        <v>0.351449297860668</v>
       </c>
       <c r="E10"/>
     </row>
@@ -568,13 +605,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>0.379825961488246</v>
+        <v>0.351449297860668</v>
       </c>
       <c r="E11"/>
     </row>
@@ -583,13 +620,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0.401631997162745</v>
+        <v>0.481135840878998</v>
       </c>
       <c r="E12"/>
     </row>
@@ -598,13 +635,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0.401631997162745</v>
+        <v>0.481135840878998</v>
       </c>
       <c r="E13"/>
     </row>
@@ -613,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>0.806383828403166</v>
+        <v>0.526225485744223</v>
       </c>
       <c r="E14"/>
     </row>
@@ -628,15 +665,45 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0.806383828403166</v>
+        <v>0.526225485744223</v>
       </c>
       <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.801835629245378</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.801835629245378</v>
+      </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -656,16 +723,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -673,16 +740,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1.72630301661863E-9</v>
+        <v>4.10375653704166E-9</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -690,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>1.72630301661863E-9</v>
+        <v>4.10375653704166E-9</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -707,16 +774,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>4.12834095141211E-11</v>
+        <v>7.13650084782703E-13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -724,16 +791,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>4.12834095141211E-11</v>
+        <v>7.13650084782703E-13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -741,16 +808,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.66270735005133E-12</v>
+        <v>1.82101595113447E-11</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -758,16 +825,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>1.66270735005133E-12</v>
+        <v>1.82101595113447E-11</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -775,16 +842,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.28591623340606E-9</v>
+        <v>3.21708099720152E-13</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -792,16 +859,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>1.28591623340606E-9</v>
+        <v>3.21708099720152E-13</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -809,16 +876,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>9.35221447090469E-12</v>
+        <v>1.60666220915369E-9</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -826,16 +893,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>9.35221447090469E-12</v>
+        <v>1.60666220915369E-9</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -843,16 +910,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>3.2972371307521E-10</v>
+        <v>2.12474569676242E-12</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -860,16 +927,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>3.2972371307521E-10</v>
+        <v>2.12474569676242E-12</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -877,16 +944,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>7.90915729556192E-13</v>
+        <v>2.29305698617857E-10</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -894,16 +961,50 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>7.90915729556192E-13</v>
+        <v>2.29305698617857E-10</v>
       </c>
       <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.81018385428712E-12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.81018385428712E-12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -924,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -941,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188187381058959</v>
+        <v>0.388415617626828</v>
       </c>
       <c r="E2"/>
     </row>
@@ -956,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.188187381058959</v>
+        <v>0.388415617626828</v>
       </c>
       <c r="E3"/>
     </row>
@@ -971,13 +1072,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.157146819842407</v>
+        <v>0.0810962432818838</v>
       </c>
       <c r="E4"/>
     </row>
@@ -986,13 +1087,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.157146819842407</v>
+        <v>0.0810962432818838</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1001,13 +1102,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0650887487548285</v>
+        <v>0.162609067399996</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1016,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0650887487548285</v>
+        <v>0.162609067399996</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1031,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.240035560396288</v>
+        <v>0.0626658993912413</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1046,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.240035560396288</v>
+        <v>0.0626658993912413</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1061,13 +1162,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.203983282086913</v>
+        <v>0.26278289541242</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1076,13 +1177,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>0.203983282086913</v>
+        <v>0.26278289541242</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1091,13 +1192,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.302825700602156</v>
+        <v>0.160211356612228</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1106,13 +1207,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>0.302825700602156</v>
+        <v>0.160211356612228</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1121,13 +1222,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0605525362063025</v>
+        <v>0.262048873727635</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1136,15 +1237,45 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0605525362063025</v>
+        <v>0.262048873727635</v>
       </c>
       <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.144592022351181</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.144592022351181</v>
+      </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1164,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -1181,13 +1312,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203449316616009</v>
+        <v>0.138714406846369</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1196,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.203449316616009</v>
+        <v>0.138714406846369</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1211,13 +1342,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.447822477084724</v>
+        <v>0.13511353342347</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1226,13 +1357,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.447822477084724</v>
+        <v>0.13511353342347</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1241,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.225387814782236</v>
+        <v>0.306386177402415</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1256,13 +1387,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.225387814782236</v>
+        <v>0.306386177402415</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1271,13 +1402,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187952382154039</v>
+        <v>0.158829686602599</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1286,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.187952382154039</v>
+        <v>0.158829686602599</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1301,13 +1432,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316170367389708</v>
+        <v>0.157972301952884</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1316,13 +1447,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316170367389708</v>
+        <v>0.157972301952884</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1331,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115465260430079</v>
+        <v>0.143690569286009</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1346,13 +1477,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0.115465260430079</v>
+        <v>0.143690569286009</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1361,13 +1492,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>0.318815452981043</v>
+        <v>0.0659691689837428</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1376,15 +1507,45 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>0.318815452981043</v>
+        <v>0.0659691689837428</v>
       </c>
       <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.164413300020516</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.164413300020516</v>
+      </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1404,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -1421,13 +1582,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43174442274246</v>
+        <v>0.871494778760503</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1436,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43174442274246</v>
+        <v>0.871494778760503</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1451,13 +1612,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.672759076964209</v>
+        <v>0.911084729800738</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1466,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.672759076964209</v>
+        <v>0.911084729800738</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1481,13 +1642,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.849715084901025</v>
+        <v>0.714885746184298</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1496,13 +1657,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.849715084901025</v>
+        <v>0.714885746184298</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1511,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.722760013823793</v>
+        <v>0.850495139762909</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1526,13 +1687,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.722760013823793</v>
+        <v>0.850495139762909</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1541,13 +1702,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.793413261720042</v>
+        <v>0.745014114133694</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1556,13 +1717,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.793413261720042</v>
+        <v>0.745014114133694</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1571,13 +1732,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>0.834011116428233</v>
+        <v>0.687074028485019</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1586,13 +1747,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>0.834011116428233</v>
+        <v>0.687074028485019</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1601,13 +1762,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>0.90817581736484</v>
+        <v>0.721251933108614</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1616,15 +1777,45 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>0.90817581736484</v>
+        <v>0.721251933108614</v>
       </c>
       <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.938065697617005</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.938065697617005</v>
+      </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1644,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -1661,13 +1852,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.794161368855019</v>
+        <v>0.946909263377894</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1676,13 +1867,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.794161368855019</v>
+        <v>0.946909263377894</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1691,13 +1882,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.643134890104883</v>
+        <v>0.367517556229913</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1706,13 +1897,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.643134890104883</v>
+        <v>0.367517556229913</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1721,13 +1912,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46947382014926</v>
+        <v>0.639514965523343</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1736,13 +1927,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46947382014926</v>
+        <v>0.639514965523343</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1751,13 +1942,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.945457181154344</v>
+        <v>0.376107296387777</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1766,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.945457181154344</v>
+        <v>0.376107296387777</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1781,13 +1972,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.625102723624199</v>
+        <v>0.941249762651856</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1796,13 +1987,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.625102723624199</v>
+        <v>0.941249762651856</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1811,13 +2002,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9426175982002</v>
+        <v>0.626802529674606</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1826,13 +2017,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9426175982002</v>
+        <v>0.626802529674606</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1841,13 +2032,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.457707911225385</v>
+        <v>0.916894761907062</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1856,15 +2047,45 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.457707911225385</v>
+        <v>0.916894761907062</v>
       </c>
       <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.599733397075688</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.599733397075688</v>
+      </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="26">
   <si>
     <t>CIs</t>
   </si>
@@ -171,10 +171,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="D2" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E2" t="n">
         <v>15.0</v>
@@ -188,13 +188,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>29.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>30.0</v>
-      </c>
       <c r="E3" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="4">
@@ -205,13 +205,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
@@ -222,13 +222,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
@@ -242,7 +242,7 @@
         <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E6" t="n">
         <v>17.0</v>
@@ -256,13 +256,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
@@ -276,10 +276,10 @@
         <v>38.0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9">
@@ -290,13 +290,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
@@ -310,7 +310,7 @@
         <v>38.0</v>
       </c>
       <c r="D10" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E10" t="n">
         <v>15.0</v>
@@ -324,13 +324,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
@@ -344,7 +344,7 @@
         <v>54.0</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E12" t="n">
         <v>17.0</v>
@@ -358,13 +358,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>54.0</v>
+        <v>40.0</v>
       </c>
       <c r="D13" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="E13" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="14">
@@ -378,7 +378,7 @@
         <v>54.0</v>
       </c>
       <c r="D14" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E14" t="n">
         <v>15.0</v>
@@ -392,13 +392,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>54.0</v>
+        <v>40.0</v>
       </c>
       <c r="D15" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -415,7 +415,7 @@
         <v>49.0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
@@ -426,13 +426,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="D17" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="E17" t="n">
-        <v>23.0</v>
+        <v>35.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +476,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.596532891672246</v>
+        <v>0.451543962327385</v>
       </c>
       <c r="E2"/>
     </row>
@@ -491,7 +491,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.596532891672246</v>
+        <v>0.905182325907776</v>
       </c>
       <c r="E3"/>
     </row>
@@ -506,7 +506,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.889668168126462</v>
+        <v>0.619224641908512</v>
       </c>
       <c r="E4"/>
     </row>
@@ -521,7 +521,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.889668168126462</v>
+        <v>0.922027061065934</v>
       </c>
       <c r="E5"/>
     </row>
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.297711053588368</v>
+        <v>0.161716746595061</v>
       </c>
       <c r="E6"/>
     </row>
@@ -551,7 +551,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.297711053588368</v>
+        <v>0.701622522068384</v>
       </c>
       <c r="E7"/>
     </row>
@@ -566,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.656202142717386</v>
+        <v>0.320389747972146</v>
       </c>
       <c r="E8"/>
     </row>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0.656202142717386</v>
+        <v>0.588351977342621</v>
       </c>
       <c r="E9"/>
     </row>
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.351449297860668</v>
+        <v>0.194420920753939</v>
       </c>
       <c r="E10"/>
     </row>
@@ -611,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>0.351449297860668</v>
+        <v>0.487525417815376</v>
       </c>
       <c r="E11"/>
     </row>
@@ -626,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0.481135840878998</v>
+        <v>0.192463192942395</v>
       </c>
       <c r="E12"/>
     </row>
@@ -641,7 +641,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0.481135840878998</v>
+        <v>0.749376953100592</v>
       </c>
       <c r="E13"/>
     </row>
@@ -656,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>0.526225485744223</v>
+        <v>0.229077159354766</v>
       </c>
       <c r="E14"/>
     </row>
@@ -671,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0.526225485744223</v>
+        <v>0.522231301521443</v>
       </c>
       <c r="E15"/>
     </row>
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>0.801835629245378</v>
+        <v>0.621944725289875</v>
       </c>
       <c r="E16"/>
     </row>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>0.801835629245378</v>
+        <v>0.658772673501451</v>
       </c>
       <c r="E17"/>
     </row>
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>4.10375653704166E-9</v>
+        <v>8.7181940914387E-10</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -763,11 +763,9 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>4.10375653704166E-9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
+        <v>0.950042977645752</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -780,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>7.13650084782703E-13</v>
+        <v>6.84243493188711E-13</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -797,11 +795,9 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>7.13650084782703E-13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
+        <v>0.692706847012499</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -814,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.82101595113447E-11</v>
+        <v>1.05955665972959E-11</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -831,11 +827,9 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>1.82101595113447E-11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
+        <v>0.523627979884279</v>
+      </c>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -848,7 +842,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>3.21708099720152E-13</v>
+        <v>7.81972392638682E-13</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -865,11 +859,9 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>3.21708099720152E-13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
+        <v>0.515196232044723</v>
+      </c>
+      <c r="E9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -882,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>1.60666220915369E-9</v>
+        <v>9.34515973068804E-10</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -899,11 +891,9 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>1.60666220915369E-9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
+        <v>0.455732939215568</v>
+      </c>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -916,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>2.12474569676242E-12</v>
+        <v>1.43005942069289E-12</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -933,11 +923,9 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>2.12474569676242E-12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
+        <v>0.403727960272639</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -950,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>2.29305698617857E-10</v>
+        <v>1.5049050949074E-10</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -967,11 +955,9 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>2.29305698617857E-10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
+        <v>0.318314669224673</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -984,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>3.81018385428712E-12</v>
+        <v>6.52506692326939E-13</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -1001,11 +987,9 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>3.81018385428712E-12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
+        <v>0.238495418982964</v>
+      </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1048,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.388415617626828</v>
+        <v>0.218491064911774</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1063,9 +1047,11 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.388415617626828</v>
-      </c>
-      <c r="E3"/>
+        <v>2.30160316005451E-4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1078,7 +1064,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0810962432818838</v>
+        <v>0.0614867381780825</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1093,9 +1079,11 @@
         <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0810962432818838</v>
-      </c>
-      <c r="E5"/>
+        <v>5.23065225225564E-5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1108,7 +1096,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162609067399996</v>
+        <v>0.129020429799864</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1123,9 +1111,11 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162609067399996</v>
-      </c>
-      <c r="E7"/>
+        <v>4.02827700591584E-6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1138,7 +1128,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0626658993912413</v>
+        <v>0.0612112605408717</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1153,9 +1143,11 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0626658993912413</v>
-      </c>
-      <c r="E9"/>
+        <v>1.28782016262707E-5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1168,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.26278289541242</v>
+        <v>0.208851532293599</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1183,9 +1175,11 @@
         <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>0.26278289541242</v>
-      </c>
-      <c r="E11"/>
+        <v>4.5992752458286E-5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1198,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.160211356612228</v>
+        <v>0.153939662444645</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1213,9 +1207,11 @@
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160211356612228</v>
-      </c>
-      <c r="E13"/>
+        <v>2.54949201604757E-6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1228,7 +1224,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262048873727635</v>
+        <v>0.247207453047202</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1243,9 +1239,11 @@
         <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>0.262048873727635</v>
-      </c>
-      <c r="E15"/>
+        <v>3.00890019713511E-5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1258,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144592022351181</v>
+        <v>0.0722502775417414</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1273,9 +1271,11 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.144592022351181</v>
-      </c>
-      <c r="E17"/>
+        <v>1.14168014750208E-6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138714406846369</v>
+        <v>0.195876224228625</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1333,7 +1333,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.138714406846369</v>
+        <v>0.156701462865214</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1348,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13511353342347</v>
+        <v>0.169149889799669</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13511353342347</v>
+        <v>0.0976777693913035</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1378,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.306386177402415</v>
+        <v>0.19741062261985</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1393,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.306386177402415</v>
+        <v>0.125523333693858</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1408,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.158829686602599</v>
+        <v>0.140988627995709</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1423,9 +1423,11 @@
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158829686602599</v>
-      </c>
-      <c r="E9"/>
+        <v>0.0391973804117374</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1438,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157972301952884</v>
+        <v>0.166267012575745</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1453,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157972301952884</v>
+        <v>0.0733389563260282</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1468,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.143690569286009</v>
+        <v>0.287816133769308</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1483,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0.143690569286009</v>
+        <v>0.247770319958172</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1498,7 +1500,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0659691689837428</v>
+        <v>0.238241847108815</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1513,7 +1515,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0659691689837428</v>
+        <v>0.145522594532723</v>
       </c>
       <c r="E15"/>
     </row>
@@ -1528,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>0.164413300020516</v>
+        <v>0.169182002602401</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1543,9 +1545,11 @@
         <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>0.164413300020516</v>
-      </c>
-      <c r="E17"/>
+        <v>0.0349557294399658</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1588,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.871494778760503</v>
+        <v>0.724501565978488</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1603,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.871494778760503</v>
+        <v>0.194760434367429</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1618,7 +1622,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.911084729800738</v>
+        <v>0.844573940676639</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1633,7 +1637,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.911084729800738</v>
+        <v>0.377027631811417</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1648,7 +1652,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.714885746184298</v>
+        <v>0.821216575744276</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1663,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.714885746184298</v>
+        <v>0.323640993569263</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1678,7 +1682,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.850495139762909</v>
+        <v>0.939731787514743</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1693,7 +1697,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.850495139762909</v>
+        <v>0.253324731302672</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1708,7 +1712,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.745014114133694</v>
+        <v>0.849410246601583</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1723,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.745014114133694</v>
+        <v>0.117067243238449</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1738,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>0.687074028485019</v>
+        <v>0.811969577882845</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1753,7 +1757,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>0.687074028485019</v>
+        <v>0.283108017546733</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1768,7 +1772,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>0.721251933108614</v>
+        <v>0.842743568637763</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1783,7 +1787,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>0.721251933108614</v>
+        <v>0.100400281404746</v>
       </c>
       <c r="E15"/>
     </row>
@@ -1798,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>0.938065697617005</v>
+        <v>0.970464443831155</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1813,7 +1817,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>0.938065697617005</v>
+        <v>0.34297479035274</v>
       </c>
       <c r="E17"/>
     </row>
@@ -1858,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.946909263377894</v>
+        <v>0.923235603817297</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1873,7 +1877,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.946909263377894</v>
+        <v>0.126227427217378</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1888,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.367517556229913</v>
+        <v>0.426701603446637</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1903,7 +1907,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.367517556229913</v>
+        <v>0.10844096314946</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1918,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.639514965523343</v>
+        <v>0.593843767851923</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1933,7 +1937,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.639514965523343</v>
+        <v>0.142922291315514</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1948,7 +1952,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.376107296387777</v>
+        <v>0.437041598869041</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1963,7 +1967,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.376107296387777</v>
+        <v>0.0682992748383905</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1978,7 +1982,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.941249762651856</v>
+        <v>0.957287838071564</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1993,7 +1997,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.941249762651856</v>
+        <v>0.0656432119076959</v>
       </c>
       <c r="E11"/>
     </row>
@@ -2008,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.626802529674606</v>
+        <v>0.581287968765621</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2023,7 +2027,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.626802529674606</v>
+        <v>0.086721663745485</v>
       </c>
       <c r="E13"/>
     </row>
@@ -2038,7 +2042,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.916894761907062</v>
+        <v>0.918098639159378</v>
       </c>
       <c r="E14"/>
     </row>
@@ -2053,9 +2057,11 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.916894761907062</v>
-      </c>
-      <c r="E15"/>
+        <v>0.0393711123684984</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2068,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.599733397075688</v>
+        <v>0.319790235752267</v>
       </c>
       <c r="E16"/>
     </row>
@@ -2083,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.599733397075688</v>
+        <v>0.186575601407041</v>
       </c>
       <c r="E17"/>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="26">
   <si>
     <t>CIs</t>
   </si>
@@ -171,7 +171,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
         <v>31.0</v>
@@ -191,10 +191,10 @@
         <v>18.0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
@@ -205,13 +205,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>18.0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="E5" t="n">
         <v>33.0</v>
@@ -239,10 +239,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="E6" t="n">
         <v>17.0</v>
@@ -256,10 +256,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>34.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33.0</v>
       </c>
       <c r="E7" t="n">
         <v>31.0</v>
@@ -273,13 +273,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="E8" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -290,10 +290,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="E9" t="n">
         <v>33.0</v>
@@ -307,7 +307,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D10" t="n">
         <v>31.0</v>
@@ -324,13 +324,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="D11" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E11" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
@@ -341,10 +341,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="D12" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="E12" t="n">
         <v>17.0</v>
@@ -361,7 +361,7 @@
         <v>40.0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="E13" t="n">
         <v>31.0</v>
@@ -375,7 +375,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="D14" t="n">
         <v>31.0</v>
@@ -395,10 +395,10 @@
         <v>40.0</v>
       </c>
       <c r="D15" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="16">
@@ -409,10 +409,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="E16" t="n">
         <v>24.0</v>
@@ -426,13 +426,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="D17" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +476,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.451543962327385</v>
+        <v>0.411056484771116</v>
       </c>
       <c r="E2"/>
     </row>
@@ -491,7 +491,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.905182325907776</v>
+        <v>0.622255203860775</v>
       </c>
       <c r="E3"/>
     </row>
@@ -506,7 +506,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.619224641908512</v>
+        <v>0.604051353992991</v>
       </c>
       <c r="E4"/>
     </row>
@@ -521,7 +521,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.922027061065934</v>
+        <v>0.887208996605888</v>
       </c>
       <c r="E5"/>
     </row>
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161716746595061</v>
+        <v>0.201252731322071</v>
       </c>
       <c r="E6"/>
     </row>
@@ -551,7 +551,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.701622522068384</v>
+        <v>0.586694993769213</v>
       </c>
       <c r="E7"/>
     </row>
@@ -566,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.320389747972146</v>
+        <v>0.374193476889366</v>
       </c>
       <c r="E8"/>
     </row>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0.588351977342621</v>
+        <v>0.737979751563512</v>
       </c>
       <c r="E9"/>
     </row>
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194420920753939</v>
+        <v>0.236745769268053</v>
       </c>
       <c r="E10"/>
     </row>
@@ -611,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>0.487525417815376</v>
+        <v>0.4398982393853</v>
       </c>
       <c r="E11"/>
     </row>
@@ -626,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0.192463192942395</v>
+        <v>0.335758912715237</v>
       </c>
       <c r="E12"/>
     </row>
@@ -641,7 +641,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0.749376953100592</v>
+        <v>0.373482331106791</v>
       </c>
       <c r="E13"/>
     </row>
@@ -656,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>0.229077159354766</v>
+        <v>0.374434375904551</v>
       </c>
       <c r="E14"/>
     </row>
@@ -671,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0.522231301521443</v>
+        <v>0.252479261422986</v>
       </c>
       <c r="E15"/>
     </row>
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>0.621944725289875</v>
+        <v>0.543241432611739</v>
       </c>
       <c r="E16"/>
     </row>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>0.658772673501451</v>
+        <v>0.699197821337897</v>
       </c>
       <c r="E17"/>
     </row>
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>8.7181940914387E-10</v>
+        <v>1.06406144883159E-9</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -763,9 +763,11 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.950042977645752</v>
-      </c>
-      <c r="E3"/>
+        <v>0.0277124728128724</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -778,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>6.84243493188711E-13</v>
+        <v>1.12589716137705E-12</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -795,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.692706847012499</v>
+        <v>0.0502082574096383</v>
       </c>
       <c r="E5"/>
     </row>
@@ -810,7 +812,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05955665972959E-11</v>
+        <v>1.26769270326508E-11</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -827,7 +829,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.523627979884279</v>
+        <v>0.144405051904691</v>
       </c>
       <c r="E7"/>
     </row>
@@ -842,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>7.81972392638682E-13</v>
+        <v>7.03377552678951E-13</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -859,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>0.515196232044723</v>
+        <v>0.175230172909954</v>
       </c>
       <c r="E9"/>
     </row>
@@ -874,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>9.34515973068804E-10</v>
+        <v>6.80639375297245E-10</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -891,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>0.455732939215568</v>
+        <v>0.127933265048824</v>
       </c>
       <c r="E11"/>
     </row>
@@ -906,7 +908,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>1.43005942069289E-12</v>
+        <v>3.38318062451636E-12</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -923,7 +925,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403727960272639</v>
+        <v>0.0970513398868389</v>
       </c>
       <c r="E13"/>
     </row>
@@ -938,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>1.5049050949074E-10</v>
+        <v>2.09617376209836E-10</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -955,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.318314669224673</v>
+        <v>0.0820876702016319</v>
       </c>
       <c r="E15"/>
     </row>
@@ -970,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>6.52506692326939E-13</v>
+        <v>1.47625009607443E-12</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -987,7 +989,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238495418982964</v>
+        <v>0.145817289498346</v>
       </c>
       <c r="E17"/>
     </row>
@@ -1032,7 +1034,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218491064911774</v>
+        <v>0.28226848440577</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1047,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>2.30160316005451E-4</v>
+        <v>7.43672888401863E-5</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1064,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0614867381780825</v>
+        <v>0.0987825553282477</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1079,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>5.23065225225564E-5</v>
+        <v>6.19957995336599E-6</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1096,7 +1098,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.129020429799864</v>
+        <v>0.220461174739047</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1111,7 +1113,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>4.02827700591584E-6</v>
+        <v>2.83670461243643E-5</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1128,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0612112605408717</v>
+        <v>0.107151650548608</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1143,7 +1145,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>1.28782016262707E-5</v>
+        <v>5.19259179868298E-6</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1160,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208851532293599</v>
+        <v>0.299752419380734</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1175,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>4.5992752458286E-5</v>
+        <v>6.18204219255169E-5</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1192,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153939662444645</v>
+        <v>0.25733802905647</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1207,7 +1209,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>2.54949201604757E-6</v>
+        <v>9.35680758669281E-6</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1224,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247207453047202</v>
+        <v>0.347586418669039</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1239,7 +1241,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>3.00890019713511E-5</v>
+        <v>2.05417296597048E-5</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -1256,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0722502775417414</v>
+        <v>0.152831970537151</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1271,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>1.14168014750208E-6</v>
+        <v>1.19039054460357E-6</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1318,7 +1320,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195876224228625</v>
+        <v>0.258931986727008</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1333,7 +1335,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.156701462865214</v>
+        <v>0.0649787411186202</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1348,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.169149889799669</v>
+        <v>0.213578249051143</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1363,7 +1365,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0976777693913035</v>
+        <v>0.141574695321826</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1378,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19741062261985</v>
+        <v>0.292194374816729</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1393,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.125523333693858</v>
+        <v>0.0534913897412752</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1408,7 +1410,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140988627995709</v>
+        <v>0.190850117554316</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1423,11 +1425,9 @@
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0391973804117374</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
+        <v>0.117447109373307</v>
+      </c>
+      <c r="E9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1440,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166267012575745</v>
+        <v>0.233911478616549</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1455,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0733389563260282</v>
+        <v>0.0500548381853677</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1470,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.287816133769308</v>
+        <v>0.179387731403851</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1485,9 +1485,11 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247770319958172</v>
-      </c>
-      <c r="E13"/>
+        <v>0.0178228053245429</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1500,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>0.238241847108815</v>
+        <v>0.143361202286213</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1515,9 +1517,11 @@
         <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>0.145522594532723</v>
-      </c>
-      <c r="E15"/>
+        <v>0.0166661101961163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1530,7 +1534,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>0.169182002602401</v>
+        <v>0.221747002116188</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1545,11 +1549,9 @@
         <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0349557294399658</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
+        <v>0.139670966430496</v>
+      </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1592,7 +1594,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.724501565978488</v>
+        <v>0.638291535497626</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1607,9 +1609,11 @@
         <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194760434367429</v>
-      </c>
-      <c r="E3"/>
+        <v>0.0172569588659486</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1622,7 +1626,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.844573940676639</v>
+        <v>0.743209324704061</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1637,7 +1641,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.377027631811417</v>
+        <v>0.0751508501822962</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1652,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.821216575744276</v>
+        <v>0.829313383432563</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1667,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.323640993569263</v>
+        <v>0.0665158412674212</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1682,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.939731787514743</v>
+        <v>0.91141882400243</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1697,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253324731302672</v>
+        <v>0.185939450393708</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1712,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.849410246601583</v>
+        <v>0.82656654624591</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1727,9 +1731,11 @@
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117067243238449</v>
-      </c>
-      <c r="E11"/>
+        <v>0.0441461307886922</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1742,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>0.811969577882845</v>
+        <v>0.90699663671121</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1757,7 +1763,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>0.283108017546733</v>
+        <v>0.0541877281986498</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1772,7 +1778,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>0.842743568637763</v>
+        <v>0.902563019334573</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1787,9 +1793,11 @@
         <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>0.100400281404746</v>
-      </c>
-      <c r="E15"/>
+        <v>0.0365682025043014</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1802,7 +1810,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>0.970464443831155</v>
+        <v>0.991015935131283</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1817,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>0.34297479035274</v>
+        <v>0.341928196987831</v>
       </c>
       <c r="E17"/>
     </row>
@@ -1862,7 +1870,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.923235603817297</v>
+        <v>0.963415440690979</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1877,9 +1885,11 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.126227427217378</v>
-      </c>
-      <c r="E3"/>
+        <v>0.0234513434458429</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1892,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.426701603446637</v>
+        <v>0.445419492913168</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1907,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10844096314946</v>
+        <v>0.0618072300707325</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1922,7 +1932,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.593843767851923</v>
+        <v>0.632917228652174</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1937,7 +1947,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.142922291315514</v>
+        <v>0.113426587741782</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1952,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.437041598869041</v>
+        <v>0.43830471458347</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1967,7 +1977,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0682992748383905</v>
+        <v>0.12721037781769</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1982,7 +1992,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.957287838071564</v>
+        <v>0.975228076552493</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1997,7 +2007,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0656432119076959</v>
+        <v>0.0513890449199505</v>
       </c>
       <c r="E11"/>
     </row>
@@ -2012,7 +2022,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.581287968765621</v>
+        <v>0.534932265391787</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2027,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.086721663745485</v>
+        <v>0.0651957233555108</v>
       </c>
       <c r="E13"/>
     </row>
@@ -2042,7 +2052,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.918098639159378</v>
+        <v>0.821686855207454</v>
       </c>
       <c r="E14"/>
     </row>
@@ -2057,7 +2067,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0393711123684984</v>
+        <v>0.0272407844734903</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2074,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.319790235752267</v>
+        <v>0.584903444268293</v>
       </c>
       <c r="E16"/>
     </row>
@@ -2089,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.186575601407041</v>
+        <v>0.13654238378413</v>
       </c>
       <c r="E17"/>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="29">
   <si>
     <t>CIs</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>15_55</t>
+  </si>
+  <si>
+    <t>10_65</t>
+  </si>
+  <si>
+    <t>20_55</t>
+  </si>
+  <si>
+    <t>20_60</t>
   </si>
   <si>
     <t>WJ3</t>
@@ -168,13 +177,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="E2" t="n">
         <v>15.0</v>
@@ -185,16 +194,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="4">
@@ -202,16 +211,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
@@ -219,16 +228,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="E5" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,16 +245,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D6" t="n">
         <v>35.0</v>
       </c>
       <c r="E6" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
@@ -253,13 +262,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D7" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="E7" t="n">
         <v>31.0</v>
@@ -270,16 +279,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="9">
@@ -287,16 +296,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="E9" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,13 +313,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" t="n">
         <v>15.0</v>
@@ -321,16 +330,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
@@ -338,16 +347,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
       <c r="D12" t="n">
         <v>35.0</v>
       </c>
       <c r="E12" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
@@ -355,13 +364,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="E13" t="n">
         <v>31.0</v>
@@ -372,13 +381,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
       <c r="D14" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="E14" t="n">
         <v>15.0</v>
@@ -389,16 +398,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="D15" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E15" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="16">
@@ -406,16 +415,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D16" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
@@ -423,16 +432,186 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>33.0</v>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -453,16 +632,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -470,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.411056484771116</v>
+        <v>0.307041435006592</v>
       </c>
       <c r="E2"/>
     </row>
@@ -485,13 +664,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.622255203860775</v>
+        <v>0.759315226070056</v>
       </c>
       <c r="E3"/>
     </row>
@@ -500,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.604051353992991</v>
+        <v>0.572457080416755</v>
       </c>
       <c r="E4"/>
     </row>
@@ -515,13 +694,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.887208996605888</v>
+        <v>0.893937572581359</v>
       </c>
       <c r="E5"/>
     </row>
@@ -530,13 +709,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201252731322071</v>
+        <v>0.221303720120182</v>
       </c>
       <c r="E6"/>
     </row>
@@ -545,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.586694993769213</v>
+        <v>0.734346638624929</v>
       </c>
       <c r="E7"/>
     </row>
@@ -560,13 +739,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.374193476889366</v>
+        <v>0.329037467341153</v>
       </c>
       <c r="E8"/>
     </row>
@@ -575,13 +754,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.737979751563512</v>
+        <v>0.747651354201899</v>
       </c>
       <c r="E9"/>
     </row>
@@ -590,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.236745769268053</v>
+        <v>0.157480245456238</v>
       </c>
       <c r="E10"/>
     </row>
@@ -605,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4398982393853</v>
+        <v>0.579331271540338</v>
       </c>
       <c r="E11"/>
     </row>
@@ -620,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.335758912715237</v>
+        <v>0.595156815803</v>
       </c>
       <c r="E12"/>
     </row>
@@ -635,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>0.373482331106791</v>
+        <v>0.277104657003112</v>
       </c>
       <c r="E13"/>
     </row>
@@ -650,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>0.374434375904551</v>
+        <v>0.443762265886628</v>
       </c>
       <c r="E14"/>
     </row>
@@ -665,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252479261422986</v>
+        <v>0.17612883598782</v>
       </c>
       <c r="E15"/>
     </row>
@@ -680,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>0.543241432611739</v>
+        <v>0.579234893133049</v>
       </c>
       <c r="E16"/>
     </row>
@@ -695,15 +874,165 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.890893579832764</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.414492724826211</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.88361060711691</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.699197821337897</v>
-      </c>
-      <c r="E17"/>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.942693356012255</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.481541934497674</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.443762265886628</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.17612883598782</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.797354668602166</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.281951847521485</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.595156815803</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.277104657003112</v>
+      </c>
+      <c r="E27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -723,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -740,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>1.06406144883159E-9</v>
+        <v>1.97562282823594E-9</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -757,33 +1086,31 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0277124728128724</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
+        <v>0.0598620427031393</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12589716137705E-12</v>
+        <v>2.04947714627657E-13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -791,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0502082574096383</v>
+        <v>0.0522691085765448</v>
       </c>
       <c r="E5"/>
     </row>
@@ -806,16 +1133,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>1.26769270326508E-11</v>
+        <v>8.95814271068152E-12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -823,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144405051904691</v>
+        <v>0.0671663225633628</v>
       </c>
       <c r="E7"/>
     </row>
@@ -838,16 +1165,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>7.03377552678951E-13</v>
+        <v>1.7635557644317E-13</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -855,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175230172909954</v>
+        <v>0.0886972891574932</v>
       </c>
       <c r="E9"/>
     </row>
@@ -870,16 +1197,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>6.80639375297245E-10</v>
+        <v>1.75947500095195E-9</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -887,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0.127933265048824</v>
+        <v>0.0996608972250338</v>
       </c>
       <c r="E11"/>
     </row>
@@ -902,16 +1229,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>3.38318062451636E-12</v>
+        <v>1.49259041293725E-12</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -919,31 +1246,33 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0970513398868389</v>
-      </c>
-      <c r="E13"/>
+        <v>0.0310685777971605</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>2.09617376209836E-10</v>
+        <v>3.65420094763499E-10</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -951,31 +1280,33 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0820876702016319</v>
-      </c>
-      <c r="E15"/>
+        <v>0.0453246132145511</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>1.47625009607443E-12</v>
+        <v>1.17704134167177E-13</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -983,15 +1314,183 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.112245241104964</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.04560075773032E-11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0403913162663622</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.145817289498346</v>
-      </c>
-      <c r="E17"/>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.45344410727056E-14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0640120302532129</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.65420094763499E-10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0453246132145511</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.04992489638957E-14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.045919853172157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.49259041293725E-12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0310685777971605</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1011,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1028,13 +1527,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28226848440577</v>
+        <v>0.280889634361041</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1043,16 +1542,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>7.43672888401863E-5</v>
+        <v>7.66015192390081E-6</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1060,13 +1559,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0987825553282477</v>
+        <v>0.0634552839508642</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1075,16 +1574,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>6.19957995336599E-6</v>
+        <v>1.6927330849305E-6</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1092,13 +1591,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.220461174739047</v>
+        <v>0.142244540477255</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1107,16 +1606,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>2.83670461243643E-5</v>
+        <v>4.31015848056279E-7</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1124,13 +1623,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107151650548608</v>
+        <v>0.0658723885676658</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1139,16 +1638,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>5.19259179868298E-6</v>
+        <v>7.53988664259905E-7</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1156,13 +1655,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.299752419380734</v>
+        <v>0.273351431086444</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1171,16 +1670,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>6.18204219255169E-5</v>
+        <v>3.24401402707911E-6</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1188,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25733802905647</v>
+        <v>0.155263561131727</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1203,16 +1702,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>9.35680758669281E-6</v>
+        <v>5.19258977276975E-8</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1220,13 +1719,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.347586418669039</v>
+        <v>0.306259972246769</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1235,16 +1734,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>2.05417296597048E-5</v>
+        <v>4.64960602514935E-7</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1252,31 +1751,195 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.152831970537151</v>
-      </c>
-      <c r="E16"/>
+        <v>0.0471527429288708</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.86321248573882E-7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.143361388565153</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.10158382760074E-6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.19039054460357E-6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.045406236534184</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.92863533716731E-7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.306259972246769</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.64960602514935E-7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0677885224087041</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.13233480923947E-7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.155263561131727</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.19258977276975E-8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1297,16 +1960,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1314,13 +1977,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.258931986727008</v>
+        <v>0.289430885417876</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1329,13 +1992,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0649787411186202</v>
+        <v>0.09039475255174</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1344,13 +2007,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213578249051143</v>
+        <v>0.401556909737685</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1359,13 +2022,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.141574695321826</v>
+        <v>0.103886116632227</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1374,13 +2037,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292194374816729</v>
+        <v>0.500038516138117</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1389,13 +2052,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0534913897412752</v>
+        <v>0.0689124553447401</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1404,13 +2067,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>0.190850117554316</v>
+        <v>0.329994591190674</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1419,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117447109373307</v>
+        <v>0.076685708677534</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1434,13 +2097,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>0.233911478616549</v>
+        <v>0.230331949702613</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1449,13 +2112,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0500548381853677</v>
+        <v>0.0645799142686201</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1464,13 +2127,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>0.179387731403851</v>
+        <v>0.263471879970443</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1479,16 +2142,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0178228053245429</v>
+        <v>0.0464560530808268</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1496,13 +2159,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>0.143361202286213</v>
+        <v>0.0985086674641513</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1511,16 +2174,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0166661101961163</v>
+        <v>0.045799729419468</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1528,13 +2191,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221747002116188</v>
+        <v>0.395115236770541</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1543,15 +2206,169 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0922175264789962</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.582880284028621</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0983839713611869</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.139670966430496</v>
-      </c>
-      <c r="E17"/>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.169080349175932</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0667356198828302</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0985086674641513</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.045799729419468</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.14778534873362</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0540626408124826</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.263471879970443</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0464560530808268</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1571,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1588,13 +2405,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.638291535497626</v>
+        <v>0.557726907566743</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1603,30 +2420,28 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0172569588659486</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
+        <v>0.068098691986623</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.743209324704061</v>
+        <v>0.659515894951421</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1635,13 +2450,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0751508501822962</v>
+        <v>0.112126166254955</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1650,13 +2465,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>0.829313383432563</v>
+        <v>0.693476098265783</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1665,13 +2480,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0665158412674212</v>
+        <v>0.0950349729740723</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1680,13 +2495,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>0.91141882400243</v>
+        <v>0.799384124301515</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1695,13 +2510,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>0.185939450393708</v>
+        <v>0.140448746653542</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1710,13 +2525,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>0.82656654624591</v>
+        <v>0.710713268019182</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1725,30 +2540,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0441461307886922</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
+        <v>0.0823482519406626</v>
+      </c>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>0.90699663671121</v>
+        <v>0.769441990683899</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1757,13 +2570,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0541877281986498</v>
+        <v>0.0542660385961825</v>
       </c>
       <c r="E13"/>
     </row>
@@ -1772,13 +2585,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>0.902563019334573</v>
+        <v>0.783971406453811</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1787,16 +2600,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0365682025043014</v>
+        <v>0.0496081877059396</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +2617,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>0.991015935131283</v>
+        <v>0.857138297655368</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1819,15 +2632,167 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.193370230088835</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.536549549726634</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0803679320376776</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.341928196987831</v>
-      </c>
-      <c r="E17"/>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.911078053570856</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.141796348940781</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.783971406453811</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0496081877059396</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.862065457633051</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0916635487503559</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.769441990683899</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0542660385961825</v>
+      </c>
+      <c r="E27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1847,16 +2812,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1864,13 +2829,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.963415440690979</v>
+        <v>0.903462781823231</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1879,16 +2844,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0234513434458429</v>
+        <v>0.0375138930194257</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1896,13 +2861,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0.445419492913168</v>
+        <v>0.375508857494829</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1911,13 +2876,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0618072300707325</v>
+        <v>0.0743277498669725</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1926,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>0.632917228652174</v>
+        <v>0.511463032032617</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1941,13 +2906,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113426587741782</v>
+        <v>0.0656585723996823</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1956,13 +2921,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>0.43830471458347</v>
+        <v>0.362564447367745</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1971,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>0.12721037781769</v>
+        <v>0.0754281112483818</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1986,13 +2951,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>0.975228076552493</v>
+        <v>0.94269889138926</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2001,28 +2966,30 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0513890449199505</v>
-      </c>
-      <c r="E11"/>
+        <v>0.0374493107418308</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>0.534932265391787</v>
+        <v>0.48186880294253</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2031,28 +2998,30 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0651957233555108</v>
-      </c>
-      <c r="E13"/>
+        <v>0.044233506087868</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>0.821686855207454</v>
+        <v>0.939020474905918</v>
       </c>
       <c r="E14"/>
     </row>
@@ -2061,16 +3030,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0272407844734903</v>
+        <v>0.0251867960062453</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2078,13 +3047,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>0.584903444268293</v>
+        <v>0.378758661382518</v>
       </c>
       <c r="E16"/>
     </row>
@@ -2093,15 +3062,173 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0423830319920505</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.51475222261674</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0674134402570373</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.13654238378413</v>
-      </c>
-      <c r="E17"/>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.312034551914176</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0276134084517539</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.939020474905918</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0251867960062453</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.327910163921331</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0541899035981001</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.48186880294253</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.044233506087868</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="31">
   <si>
     <t>CIs</t>
   </si>
@@ -65,7 +65,13 @@
     <t>20_55</t>
   </si>
   <si>
-    <t>20_60</t>
+    <t>10_80</t>
+  </si>
+  <si>
+    <t>15_80</t>
+  </si>
+  <si>
+    <t>20_80</t>
   </si>
   <si>
     <t>WJ3</t>
@@ -89,10 +95,10 @@
     <t>age.beh</t>
   </si>
   <si>
-    <t>wj3.rcomp.raw</t>
+    <t>*</t>
   </si>
   <si>
-    <t>*</t>
+    <t>wj3.rcomp.raw</t>
   </si>
   <si>
     <t>ktea2.raw</t>
@@ -177,10 +183,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D2" t="n">
         <v>30.0</v>
@@ -194,16 +200,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n">
         <v>32.0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -211,16 +217,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D4" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
@@ -228,16 +234,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="D5" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="E5" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="6">
@@ -245,16 +251,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D6" t="n">
         <v>36.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>35.0</v>
-      </c>
       <c r="E6" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
@@ -262,10 +268,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n">
         <v>35.0</v>
@@ -279,16 +285,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9">
@@ -296,16 +302,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
@@ -313,10 +319,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="D10" t="n">
         <v>30.0</v>
@@ -330,16 +336,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="D11" t="n">
         <v>32.0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -347,16 +353,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E12" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
@@ -364,10 +370,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="D13" t="n">
         <v>35.0</v>
@@ -381,10 +387,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="D14" t="n">
         <v>30.0</v>
@@ -398,16 +404,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="D15" t="n">
         <v>32.0</v>
       </c>
       <c r="E15" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -415,16 +421,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="D16" t="n">
         <v>49.0</v>
       </c>
       <c r="E16" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -432,16 +438,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="E17" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="18">
@@ -449,16 +455,16 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D18" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E18" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
@@ -466,10 +472,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="D19" t="n">
         <v>35.0</v>
@@ -483,16 +489,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="D20" t="n">
         <v>49.0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -500,118 +506,118 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="D21" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="E21" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>52.0</v>
+        <v>28.0</v>
       </c>
       <c r="D22" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="D23" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="E23" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>52.0</v>
+        <v>35.0</v>
       </c>
       <c r="D24" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="E24" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="D25" t="n">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="E25" t="n">
-        <v>32.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="D26" t="n">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
       <c r="E26" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="D27" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="E27" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -632,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -649,13 +655,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.307041435006592</v>
+        <v>0.637378271497404</v>
       </c>
       <c r="E2"/>
     </row>
@@ -664,13 +670,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.759315226070056</v>
+        <v>0.0525300832587935</v>
       </c>
       <c r="E3"/>
     </row>
@@ -679,13 +685,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.572457080416755</v>
+        <v>0.906088417952405</v>
       </c>
       <c r="E4"/>
     </row>
@@ -694,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.893937572581359</v>
+        <v>0.0972894340703516</v>
       </c>
       <c r="E5"/>
     </row>
@@ -709,13 +715,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.221303720120182</v>
+        <v>0.355533076217116</v>
       </c>
       <c r="E6"/>
     </row>
@@ -724,13 +730,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.734346638624929</v>
+        <v>0.426275445103414</v>
       </c>
       <c r="E7"/>
     </row>
@@ -739,13 +745,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.329037467341153</v>
+        <v>0.647806021449913</v>
       </c>
       <c r="E8"/>
     </row>
@@ -754,13 +760,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.747651354201899</v>
+        <v>0.387431516899172</v>
       </c>
       <c r="E9"/>
     </row>
@@ -769,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157480245456238</v>
+        <v>0.372383442615091</v>
       </c>
       <c r="E10"/>
     </row>
@@ -784,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.579331271540338</v>
+        <v>0.23117487633926</v>
       </c>
       <c r="E11"/>
     </row>
@@ -799,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>0.595156815803</v>
+        <v>0.410886332464932</v>
       </c>
       <c r="E12"/>
     </row>
@@ -814,13 +820,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>0.277104657003112</v>
+        <v>0.344869885733535</v>
       </c>
       <c r="E13"/>
     </row>
@@ -829,13 +835,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>0.443762265886628</v>
+        <v>0.423093280820295</v>
       </c>
       <c r="E14"/>
     </row>
@@ -844,13 +850,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>0.17612883598782</v>
+        <v>0.166273477100846</v>
       </c>
       <c r="E15"/>
     </row>
@@ -859,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>0.579234893133049</v>
+        <v>0.82880593201561</v>
       </c>
       <c r="E16"/>
     </row>
@@ -874,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>0.890893579832764</v>
+        <v>0.392186903409047</v>
       </c>
       <c r="E17"/>
     </row>
@@ -889,13 +895,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>0.414492724826211</v>
+        <v>0.6829929784868</v>
       </c>
       <c r="E18"/>
     </row>
@@ -904,13 +910,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>0.88361060711691</v>
+        <v>0.109847322705474</v>
       </c>
       <c r="E19"/>
     </row>
@@ -919,13 +925,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>0.942693356012255</v>
+        <v>0.922407416045081</v>
       </c>
       <c r="E20"/>
     </row>
@@ -934,103 +940,105 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>0.481541934497674</v>
+        <v>0.310206895940399</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>0.443762265886628</v>
+        <v>0.56480879123981</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>0.17612883598782</v>
-      </c>
-      <c r="E23"/>
+        <v>0.0361805315940101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>0.797354668602166</v>
+        <v>0.319220140211188</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.281951847521485</v>
+        <v>0.148393451501523</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>0.595156815803</v>
+        <v>0.356460694383808</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>0.277104657003112</v>
+        <v>0.103715123184513</v>
       </c>
       <c r="E27"/>
     </row>
@@ -1052,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1069,16 +1077,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97562282823594E-9</v>
+        <v>3.94119102245789E-9</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1086,13 +1094,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0598620427031393</v>
+        <v>0.0909110543823618</v>
       </c>
       <c r="E3"/>
     </row>
@@ -1101,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>2.04947714627657E-13</v>
+        <v>1.3322333463877E-12</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1118,13 +1126,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0522691085765448</v>
+        <v>0.136238147697185</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1133,16 +1141,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>8.95814271068152E-12</v>
+        <v>4.92045698763361E-11</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1150,13 +1158,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0671663225633628</v>
+        <v>0.137070181177501</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1165,16 +1173,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7635557644317E-13</v>
+        <v>8.32584274062137E-13</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1182,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0886972891574932</v>
+        <v>0.321645978435317</v>
       </c>
       <c r="E9"/>
     </row>
@@ -1197,16 +1205,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>1.75947500095195E-9</v>
+        <v>2.36319606927338E-9</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1214,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0996608972250338</v>
+        <v>0.274717744752347</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1229,16 +1237,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>1.49259041293725E-12</v>
+        <v>3.98124881674531E-12</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1246,33 +1254,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0310685777971605</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0760363372538793</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>3.65420094763499E-10</v>
+        <v>2.45237962592433E-10</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -1280,33 +1286,31 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0453246132145511</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
+        <v>0.157774567461636</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>1.17704134167177E-13</v>
+        <v>8.21328633891346E-13</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1314,13 +1318,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112245241104964</v>
+        <v>0.216778053270573</v>
       </c>
       <c r="E17"/>
     </row>
@@ -1329,16 +1333,16 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>1.04560075773032E-11</v>
+        <v>8.39765755434735E-11</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1346,16 +1350,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0403913162663622</v>
+        <v>0.0489907331053726</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1363,16 +1367,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>2.45344410727056E-14</v>
+        <v>9.30972256440525E-14</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1380,117 +1384,111 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0640120302532129</v>
+        <v>0.130654679490221</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>3.65420094763499E-10</v>
+        <v>1.02551697399521E-7</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0453246132145511</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
+        <v>0.110762901728832</v>
+      </c>
+      <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>3.04992489638957E-14</v>
+        <v>5.98832633265837E-8</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>0.045919853172157</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
+        <v>0.27834960175128</v>
+      </c>
+      <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>1.49259041293725E-12</v>
+        <v>6.15204641437779E-9</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0310685777971605</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
+        <v>0.189568652392845</v>
+      </c>
+      <c r="E27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1510,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1527,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.280889634361041</v>
+        <v>0.31148418449022</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1542,16 +1540,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.30331784817779E-5</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.66015192390081E-6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1559,13 +1557,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0634552839508642</v>
+        <v>0.0619319055181598</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1574,16 +1572,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.49362539442425E-5</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.6927330849305E-6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1591,13 +1589,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>0.142244540477255</v>
+        <v>0.177239926397337</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1606,16 +1604,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.97544030724039E-7</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.31015848056279E-7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1623,13 +1621,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0658723885676658</v>
+        <v>0.0637227736929559</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1638,16 +1636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.08911767436274E-5</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.53988664259905E-7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1655,13 +1653,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273351431086444</v>
+        <v>0.305366860267933</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1670,16 +1668,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.91581558924176E-6</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.24401402707911E-6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1687,13 +1685,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>0.155263561131727</v>
+        <v>0.188560750083363</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1702,16 +1700,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.41683390794832E-7</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.19258977276975E-8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1719,13 +1717,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306259972246769</v>
+        <v>0.324651565989044</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1734,16 +1732,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.68306354745376E-6</v>
+      </c>
+      <c r="E15" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.64960602514935E-7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1751,33 +1749,31 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0471527429288708</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0683823613899413</v>
+      </c>
+      <c r="E16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.62625278486522E-6</v>
+      </c>
+      <c r="E17" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.86321248573882E-7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1785,13 +1781,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>0.143361388565153</v>
+        <v>0.182204248480004</v>
       </c>
       <c r="E18"/>
     </row>
@@ -1800,16 +1796,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.12966781668097E-6</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.10158382760074E-6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -1817,129 +1813,127 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>0.045406236534184</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0693119057694872</v>
+      </c>
+      <c r="E20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.01302254389518E-6</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.92863533716731E-7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>0.306259972246769</v>
+        <v>0.275275459935567</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.26013969286146E-7</v>
+      </c>
+      <c r="E23" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.64960602514935E-7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0677885224087041</v>
+        <v>0.278034232898657</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.17723014651517E-7</v>
+      </c>
+      <c r="E25" t="s">
         <v>25</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.13233480923947E-7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>0.155263561131727</v>
+        <v>0.303620559431721</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.7039378618287E-8</v>
+      </c>
+      <c r="E27" t="s">
         <v>25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5.19258977276975E-8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1960,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1977,13 +1971,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289430885417876</v>
+        <v>0.196288792143001</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1992,28 +1986,30 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09039475255174</v>
-      </c>
-      <c r="E3"/>
+        <v>0.0463003906666185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0.401556909737685</v>
+        <v>0.219972976905836</v>
       </c>
       <c r="E4"/>
     </row>
@@ -2022,28 +2018,30 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>0.103886116632227</v>
-      </c>
-      <c r="E5"/>
+        <v>0.0199186001264094</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>0.500038516138117</v>
+        <v>0.384700277381602</v>
       </c>
       <c r="E6"/>
     </row>
@@ -2052,13 +2050,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0689124553447401</v>
+        <v>0.213055717300394</v>
       </c>
       <c r="E7"/>
     </row>
@@ -2067,13 +2065,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>0.329994591190674</v>
+        <v>0.195863293581119</v>
       </c>
       <c r="E8"/>
     </row>
@@ -2082,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>0.076685708677534</v>
+        <v>0.0583043608171548</v>
       </c>
       <c r="E9"/>
     </row>
@@ -2097,13 +2095,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>0.230331949702613</v>
+        <v>0.171718267459938</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2112,13 +2110,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0645799142686201</v>
+        <v>0.141208036174696</v>
       </c>
       <c r="E11"/>
     </row>
@@ -2127,13 +2125,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>0.263471879970443</v>
+        <v>0.307666556926009</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2142,30 +2140,28 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0464560530808268</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
+        <v>0.19037466307088</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0985086674641513</v>
+        <v>0.119818124250242</v>
       </c>
       <c r="E14"/>
     </row>
@@ -2174,30 +2170,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>0.045799729419468</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
+        <v>0.125224663208959</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>0.395115236770541</v>
+        <v>0.285503948886354</v>
       </c>
       <c r="E16"/>
     </row>
@@ -2206,28 +2200,30 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0922175264789962</v>
-      </c>
-      <c r="E17"/>
+        <v>0.0351514959589996</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>0.582880284028621</v>
+        <v>0.406909039313082</v>
       </c>
       <c r="E18"/>
     </row>
@@ -2236,13 +2232,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0983839713611869</v>
+        <v>0.06677149145234</v>
       </c>
       <c r="E19"/>
     </row>
@@ -2251,13 +2247,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169080349175932</v>
+        <v>0.205228220008243</v>
       </c>
       <c r="E20"/>
     </row>
@@ -2266,109 +2262,107 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0667356198828302</v>
-      </c>
-      <c r="E21"/>
+        <v>0.0289247574074712</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0985086674641513</v>
+        <v>0.26376201995724</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>0.045799729419468</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
+        <v>0.104437302723588</v>
+      </c>
+      <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>0.14778534873362</v>
+        <v>0.236129542324628</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0540626408124826</v>
+        <v>0.285994116916546</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>0.263471879970443</v>
+        <v>0.178170314801345</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0464560530808268</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
+        <v>0.259480670793078</v>
+      </c>
+      <c r="E27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2388,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -2405,13 +2399,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0.557726907566743</v>
+        <v>0.710490212596601</v>
       </c>
       <c r="E2"/>
     </row>
@@ -2420,13 +2414,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>0.068098691986623</v>
+        <v>0.0751512839589276</v>
       </c>
       <c r="E3"/>
     </row>
@@ -2435,13 +2429,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.659515894951421</v>
+        <v>0.803737731329994</v>
       </c>
       <c r="E4"/>
     </row>
@@ -2450,13 +2444,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112126166254955</v>
+        <v>0.191811693576249</v>
       </c>
       <c r="E5"/>
     </row>
@@ -2465,13 +2459,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>0.693476098265783</v>
+        <v>0.774995798945415</v>
       </c>
       <c r="E6"/>
     </row>
@@ -2480,13 +2474,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0950349729740723</v>
+        <v>0.166256674347561</v>
       </c>
       <c r="E7"/>
     </row>
@@ -2495,13 +2489,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>0.799384124301515</v>
+        <v>0.917993085852757</v>
       </c>
       <c r="E8"/>
     </row>
@@ -2510,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140448746653542</v>
+        <v>0.241816133472441</v>
       </c>
       <c r="E9"/>
     </row>
@@ -2525,13 +2519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>0.710713268019182</v>
+        <v>0.837200123615584</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2540,13 +2534,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0823482519406626</v>
+        <v>0.0899938037730358</v>
       </c>
       <c r="E11"/>
     </row>
@@ -2555,13 +2549,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>0.769441990683899</v>
+        <v>0.736007067821896</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2570,13 +2564,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0542660385961825</v>
+        <v>0.13629786081604</v>
       </c>
       <c r="E13"/>
     </row>
@@ -2585,13 +2579,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.783971406453811</v>
+        <v>0.811335609730402</v>
       </c>
       <c r="E14"/>
     </row>
@@ -2600,30 +2594,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0496081877059396</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0770484697173347</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>0.857138297655368</v>
+        <v>0.957126337745005</v>
       </c>
       <c r="E16"/>
     </row>
@@ -2632,13 +2624,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>0.193370230088835</v>
+        <v>0.214673347188756</v>
       </c>
       <c r="E17"/>
     </row>
@@ -2647,13 +2639,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>0.536549549726634</v>
+        <v>0.635622678452632</v>
       </c>
       <c r="E18"/>
     </row>
@@ -2662,13 +2654,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0803679320376776</v>
+        <v>0.142456355222188</v>
       </c>
       <c r="E19"/>
     </row>
@@ -2677,13 +2669,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>0.911078053570856</v>
+        <v>0.956376331468472</v>
       </c>
       <c r="E20"/>
     </row>
@@ -2692,105 +2684,103 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>0.141796348940781</v>
+        <v>0.190107751764834</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>0.783971406453811</v>
+        <v>0.593779401347522</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0496081877059396</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
+        <v>0.400760062892228</v>
+      </c>
+      <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.862065457633051</v>
+        <v>0.714245019933317</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0916635487503559</v>
+        <v>0.523589555589175</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>0.769441990683899</v>
+        <v>0.671766984319058</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0542660385961825</v>
+        <v>0.491858308236642</v>
       </c>
       <c r="E27"/>
     </row>
@@ -2812,16 +2802,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -2829,13 +2819,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.903462781823231</v>
+        <v>0.943222178313434</v>
       </c>
       <c r="E2"/>
     </row>
@@ -2844,30 +2834,28 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0375138930194257</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0654439351710718</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.375508857494829</v>
+        <v>0.429166000777708</v>
       </c>
       <c r="E4"/>
     </row>
@@ -2876,28 +2864,30 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0743277498669725</v>
-      </c>
-      <c r="E5"/>
+        <v>0.0465280935419299</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.511463032032617</v>
+        <v>0.621322184594087</v>
       </c>
       <c r="E6"/>
     </row>
@@ -2906,13 +2896,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0656585723996823</v>
+        <v>0.115666666303581</v>
       </c>
       <c r="E7"/>
     </row>
@@ -2921,13 +2911,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0.362564447367745</v>
+        <v>0.411403661207818</v>
       </c>
       <c r="E8"/>
     </row>
@@ -2936,13 +2926,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0754281112483818</v>
+        <v>0.0638423885269263</v>
       </c>
       <c r="E9"/>
     </row>
@@ -2951,13 +2941,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.94269889138926</v>
+        <v>0.946221613380201</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2966,30 +2956,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0374493107418308</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0939398662033192</v>
+      </c>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0.48186880294253</v>
+        <v>0.611645294910553</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2998,30 +2986,28 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>0.044233506087868</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0792058278901758</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0.939020474905918</v>
+        <v>0.945286311459061</v>
       </c>
       <c r="E14"/>
     </row>
@@ -3030,30 +3016,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0251867960062453</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0652931530657382</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0.378758661382518</v>
+        <v>0.443822562810503</v>
       </c>
       <c r="E16"/>
     </row>
@@ -3062,30 +3046,28 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0423830319920505</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0716929879716158</v>
+      </c>
+      <c r="E17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>0.51475222261674</v>
+        <v>0.623459433462153</v>
       </c>
       <c r="E18"/>
     </row>
@@ -3094,13 +3076,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0674134402570373</v>
+        <v>0.0851681323983339</v>
       </c>
       <c r="E19"/>
     </row>
@@ -3109,13 +3091,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0.312034551914176</v>
+        <v>0.441794231934747</v>
       </c>
       <c r="E20"/>
     </row>
@@ -3124,111 +3106,105 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0276134084517539</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0547130360020201</v>
+      </c>
+      <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.939020474905918</v>
+        <v>0.926236978073075</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0251867960062453</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
+        <v>0.145079840954372</v>
+      </c>
+      <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.327910163921331</v>
+        <v>0.959321926789895</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0541899035981001</v>
+        <v>0.197424126396883</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.48186880294253</v>
+        <v>0.928725397980088</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>0.044233506087868</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
+        <v>0.141198014000353</v>
+      </c>
+      <c r="E27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
